--- a/src/pymatlib/data/alloys/SS304L/304L_Erstarrungsdaten_edited.xlsx
+++ b/src/pymatlib/data/alloys/SS304L/304L_Erstarrungsdaten_edited.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28723"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99A90288-8FBC-4EAF-9CBC-8BF2C813EF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B062E79-EE3C-4310-A19F-8B31372DFEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -521,8 +521,8 @@
   <dimension ref="A1:AK562"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q241" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="Y282" sqref="Y282"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="W241" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="AE1" sqref="AE1:AE1048576"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -28757,7 +28757,7 @@
       </c>
       <c r="U281" s="4">
         <f>U282 + W281*(A281-A282) + (Y281-Y282)</f>
-        <v>980955.14999999991</v>
+        <v>980955.14999999385</v>
       </c>
       <c r="V281" s="15">
         <v>0.874</v>
@@ -28770,8 +28770,8 @@
         <v>171.40100000000001</v>
       </c>
       <c r="Y281" s="10">
-        <f>0</f>
-        <v>0</v>
+        <f>1318.46923076923*A281 - 2116143.11538462</f>
+        <v>-6.0535967350006104E-9</v>
       </c>
       <c r="Z281" s="16" t="s">
         <v>31</v>
@@ -28784,7 +28784,7 @@
       </c>
       <c r="AC281" s="36">
         <f>E281*U281</f>
-        <v>7124029824.0509996</v>
+        <v>7124029824.0509558</v>
       </c>
       <c r="AD281" s="34">
         <f>E281*S281*1000</f>
